--- a/天天利一号2018年09月收益表.xlsx
+++ b/天天利一号2018年09月收益表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="18468" windowHeight="9947" firstSheet="6" activeTab="10"/>
+    <workbookView windowWidth="22368" windowHeight="9947" firstSheet="6" activeTab="10"/>
   </bookViews>
   <sheets>
     <sheet name="2015汇总" sheetId="1" r:id="rId1"/>
@@ -118,14 +118,14 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="8">
+    <numFmt numFmtId="176" formatCode="0.00_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="0.000%"/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="0.00_);[Red]\(0.00\)"/>
-    <numFmt numFmtId="177" formatCode="yyyy&quot;年&quot;m&quot;月&quot;;@"/>
-    <numFmt numFmtId="178" formatCode="0.00_ "/>
-    <numFmt numFmtId="179" formatCode="0.000%"/>
+    <numFmt numFmtId="178" formatCode="0.00_);[Red]\(0.00\)"/>
+    <numFmt numFmtId="179" formatCode="yyyy&quot;年&quot;m&quot;月&quot;;@"/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -167,6 +167,90 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -183,25 +267,10 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -213,31 +282,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -251,30 +297,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="宋体"/>
@@ -283,29 +305,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -332,7 +332,109 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -344,19 +446,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -374,12 +464,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -392,19 +476,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -416,103 +506,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -667,26 +667,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
       </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
       </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
       </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -706,6 +697,26 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -721,13 +732,26 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -740,30 +764,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -772,10 +772,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -784,133 +784,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="16" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="15" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="14" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="15" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -921,58 +921,58 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
+    <xf numFmtId="179" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="10" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="10" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="10" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="10" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -981,13 +981,13 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1041,31 +1041,31 @@
     <xf numFmtId="10" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="0" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="177" fontId="0" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="177" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -1083,19 +1083,19 @@
     <xf numFmtId="2" fontId="0" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="177" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="10" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="10" fontId="0" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="0" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="0" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -1107,7 +1107,7 @@
     <xf numFmtId="2" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -1122,37 +1122,37 @@
     <xf numFmtId="2" fontId="0" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="0" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="0" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="10" fontId="1" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="1" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="1" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
+    <xf numFmtId="176" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="2" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1161,10 +1161,10 @@
     <xf numFmtId="14" fontId="2" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="179" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" quotePrefix="1">
+    <xf numFmtId="177" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" quotePrefix="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" quotePrefix="1">
+    <xf numFmtId="177" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" quotePrefix="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2114,7 +2114,7 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:numFmt formatCode="m/d/yyyy" sourceLinked="1"/>
+        <c:numFmt formatCode="m\/d\/yyyy" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -2179,7 +2179,7 @@
         </c:scaling>
         <c:delete val="1"/>
         <c:axPos val="b"/>
-        <c:numFmt formatCode="m/d/yyyy" sourceLinked="1"/>
+        <c:numFmt formatCode="m\/d\/yyyy" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="none"/>
@@ -2853,7 +2853,7 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:numFmt formatCode="m/d/yyyy" sourceLinked="1"/>
+        <c:numFmt formatCode="m\/d\/yyyy" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -2918,7 +2918,7 @@
         </c:scaling>
         <c:delete val="1"/>
         <c:axPos val="b"/>
-        <c:numFmt formatCode="m/d/yyyy" sourceLinked="1"/>
+        <c:numFmt formatCode="m\/d\/yyyy" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="none"/>
@@ -3207,49 +3207,52 @@
               <c:strCache>
                 <c:ptCount val="24"/>
                 <c:pt idx="0" c:formatCode="yyyy/m/d">
-                  <c:v>2018/9/3</c:v>
+                  <c:v>2018-9-3</c:v>
                 </c:pt>
                 <c:pt idx="1" c:formatCode="yyyy/m/d">
-                  <c:v>2018/9/4</c:v>
+                  <c:v>2018-9-4</c:v>
                 </c:pt>
                 <c:pt idx="2" c:formatCode="yyyy/m/d">
-                  <c:v>2018/9/5</c:v>
+                  <c:v>2018-9-5</c:v>
                 </c:pt>
                 <c:pt idx="3" c:formatCode="yyyy/m/d">
-                  <c:v>2018/9/6</c:v>
+                  <c:v>2018-9-6</c:v>
                 </c:pt>
                 <c:pt idx="4" c:formatCode="yyyy/m/d">
-                  <c:v>2018/9/7</c:v>
+                  <c:v>2018-9-7</c:v>
                 </c:pt>
                 <c:pt idx="5" c:formatCode="yyyy/m/d">
-                  <c:v>2018/9/10</c:v>
+                  <c:v>2018-9-10</c:v>
                 </c:pt>
                 <c:pt idx="6" c:formatCode="yyyy/m/d">
-                  <c:v>2018/9/11</c:v>
+                  <c:v>2018-9-11</c:v>
                 </c:pt>
                 <c:pt idx="7" c:formatCode="yyyy/m/d">
-                  <c:v>2018/9/12</c:v>
+                  <c:v>2018-9-12</c:v>
                 </c:pt>
                 <c:pt idx="8" c:formatCode="yyyy/m/d">
-                  <c:v>2018/9/13</c:v>
+                  <c:v>2018-9-13</c:v>
                 </c:pt>
                 <c:pt idx="9" c:formatCode="yyyy/m/d">
-                  <c:v>2018/9/14</c:v>
+                  <c:v>2018-9-14</c:v>
                 </c:pt>
                 <c:pt idx="10" c:formatCode="yyyy/m/d">
-                  <c:v>2018/9/17</c:v>
+                  <c:v>2018-9-17</c:v>
                 </c:pt>
                 <c:pt idx="11" c:formatCode="yyyy/m/d">
-                  <c:v>2018/9/18</c:v>
+                  <c:v>2018-9-18</c:v>
                 </c:pt>
                 <c:pt idx="12" c:formatCode="yyyy/m/d">
-                  <c:v>2018/9/19</c:v>
+                  <c:v>2018-9-19</c:v>
                 </c:pt>
                 <c:pt idx="13" c:formatCode="yyyy/m/d">
-                  <c:v>2018/9/20</c:v>
+                  <c:v>2018-9-20</c:v>
                 </c:pt>
                 <c:pt idx="14" c:formatCode="yyyy/m/d">
-                  <c:v>2018/9/21</c:v>
+                  <c:v>2018-9-21</c:v>
+                </c:pt>
+                <c:pt idx="15" c:formatCode="yyyy/m/d">
+                  <c:v>2018-9-25</c:v>
                 </c:pt>
                 <c:pt idx="23" c:formatCode="yyyy/m/d">
                   <c:v>合计</c:v>
@@ -3306,6 +3309,9 @@
                   <c:v>-8.26</c:v>
                 </c:pt>
                 <c:pt idx="14">
+                  <c:v>16.52</c:v>
+                </c:pt>
+                <c:pt idx="15">
                   <c:v>16.52</c:v>
                 </c:pt>
               </c:numCache>
@@ -3401,49 +3407,52 @@
               <c:strCache>
                 <c:ptCount val="24"/>
                 <c:pt idx="0" c:formatCode="yyyy/m/d">
-                  <c:v>2018/9/3</c:v>
+                  <c:v>2018-9-3</c:v>
                 </c:pt>
                 <c:pt idx="1" c:formatCode="yyyy/m/d">
-                  <c:v>2018/9/4</c:v>
+                  <c:v>2018-9-4</c:v>
                 </c:pt>
                 <c:pt idx="2" c:formatCode="yyyy/m/d">
-                  <c:v>2018/9/5</c:v>
+                  <c:v>2018-9-5</c:v>
                 </c:pt>
                 <c:pt idx="3" c:formatCode="yyyy/m/d">
-                  <c:v>2018/9/6</c:v>
+                  <c:v>2018-9-6</c:v>
                 </c:pt>
                 <c:pt idx="4" c:formatCode="yyyy/m/d">
-                  <c:v>2018/9/7</c:v>
+                  <c:v>2018-9-7</c:v>
                 </c:pt>
                 <c:pt idx="5" c:formatCode="yyyy/m/d">
-                  <c:v>2018/9/10</c:v>
+                  <c:v>2018-9-10</c:v>
                 </c:pt>
                 <c:pt idx="6" c:formatCode="yyyy/m/d">
-                  <c:v>2018/9/11</c:v>
+                  <c:v>2018-9-11</c:v>
                 </c:pt>
                 <c:pt idx="7" c:formatCode="yyyy/m/d">
-                  <c:v>2018/9/12</c:v>
+                  <c:v>2018-9-12</c:v>
                 </c:pt>
                 <c:pt idx="8" c:formatCode="yyyy/m/d">
-                  <c:v>2018/9/13</c:v>
+                  <c:v>2018-9-13</c:v>
                 </c:pt>
                 <c:pt idx="9" c:formatCode="yyyy/m/d">
-                  <c:v>2018/9/14</c:v>
+                  <c:v>2018-9-14</c:v>
                 </c:pt>
                 <c:pt idx="10" c:formatCode="yyyy/m/d">
-                  <c:v>2018/9/17</c:v>
+                  <c:v>2018-9-17</c:v>
                 </c:pt>
                 <c:pt idx="11" c:formatCode="yyyy/m/d">
-                  <c:v>2018/9/18</c:v>
+                  <c:v>2018-9-18</c:v>
                 </c:pt>
                 <c:pt idx="12" c:formatCode="yyyy/m/d">
-                  <c:v>2018/9/19</c:v>
+                  <c:v>2018-9-19</c:v>
                 </c:pt>
                 <c:pt idx="13" c:formatCode="yyyy/m/d">
-                  <c:v>2018/9/20</c:v>
+                  <c:v>2018-9-20</c:v>
                 </c:pt>
                 <c:pt idx="14" c:formatCode="yyyy/m/d">
-                  <c:v>2018/9/21</c:v>
+                  <c:v>2018-9-21</c:v>
+                </c:pt>
+                <c:pt idx="15" c:formatCode="yyyy/m/d">
+                  <c:v>2018-9-25</c:v>
                 </c:pt>
                 <c:pt idx="23" c:formatCode="yyyy/m/d">
                   <c:v>合计</c:v>
@@ -3501,6 +3510,9 @@
                 </c:pt>
                 <c:pt idx="14" c:formatCode="0.00%">
                   <c:v>-0.0272</c:v>
+                </c:pt>
+                <c:pt idx="15" c:formatCode="0.00%">
+                  <c:v>-0.01564</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4217,7 +4229,7 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:numFmt formatCode="m/d/yyyy" sourceLinked="1"/>
+        <c:numFmt formatCode="m\/d\/yyyy" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -4282,7 +4294,7 @@
         </c:scaling>
         <c:delete val="1"/>
         <c:axPos val="b"/>
-        <c:numFmt formatCode="m/d/yyyy" sourceLinked="1"/>
+        <c:numFmt formatCode="m\/d\/yyyy" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="none"/>
@@ -5276,7 +5288,7 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:numFmt formatCode="m/d/yyyy" sourceLinked="1"/>
+        <c:numFmt formatCode="m\/d\/yyyy" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -5341,7 +5353,7 @@
         </c:scaling>
         <c:delete val="1"/>
         <c:axPos val="b"/>
-        <c:numFmt formatCode="m/d/yyyy" sourceLinked="1"/>
+        <c:numFmt formatCode="m\/d\/yyyy" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="none"/>
@@ -5980,7 +5992,7 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:numFmt formatCode="m/d/yyyy" sourceLinked="1"/>
+        <c:numFmt formatCode="m\/d\/yyyy" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -6045,7 +6057,7 @@
         </c:scaling>
         <c:delete val="1"/>
         <c:axPos val="b"/>
-        <c:numFmt formatCode="m/d/yyyy" sourceLinked="1"/>
+        <c:numFmt formatCode="m\/d\/yyyy" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="none"/>
@@ -6733,7 +6745,7 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:numFmt formatCode="m/d/yyyy" sourceLinked="1"/>
+        <c:numFmt formatCode="m\/d\/yyyy" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -6798,7 +6810,7 @@
         </c:scaling>
         <c:delete val="1"/>
         <c:axPos val="b"/>
-        <c:numFmt formatCode="m/d/yyyy" sourceLinked="1"/>
+        <c:numFmt formatCode="m\/d\/yyyy" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="none"/>
@@ -7766,7 +7778,7 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:numFmt formatCode="m/d/yyyy" sourceLinked="1"/>
+        <c:numFmt formatCode="m\/d\/yyyy" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -7831,7 +7843,7 @@
         </c:scaling>
         <c:delete val="1"/>
         <c:axPos val="b"/>
-        <c:numFmt formatCode="m/d/yyyy" sourceLinked="1"/>
+        <c:numFmt formatCode="m\/d\/yyyy" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="none"/>
@@ -8511,7 +8523,7 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:numFmt formatCode="m/d/yyyy" sourceLinked="1"/>
+        <c:numFmt formatCode="m\/d\/yyyy" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -8576,7 +8588,7 @@
         </c:scaling>
         <c:delete val="1"/>
         <c:axPos val="b"/>
-        <c:numFmt formatCode="m/d/yyyy" sourceLinked="1"/>
+        <c:numFmt formatCode="m\/d\/yyyy" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="none"/>
@@ -9178,7 +9190,7 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:numFmt formatCode="m/d/yyyy" sourceLinked="1"/>
+        <c:numFmt formatCode="m\/d\/yyyy" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -9243,7 +9255,7 @@
         </c:scaling>
         <c:delete val="1"/>
         <c:axPos val="b"/>
-        <c:numFmt formatCode="m/d/yyyy" sourceLinked="1"/>
+        <c:numFmt formatCode="m\/d\/yyyy" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="none"/>
@@ -9938,7 +9950,7 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:numFmt formatCode="m/d/yyyy" sourceLinked="1"/>
+        <c:numFmt formatCode="m\/d\/yyyy" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -10003,7 +10015,7 @@
         </c:scaling>
         <c:delete val="1"/>
         <c:axPos val="b"/>
-        <c:numFmt formatCode="m/d/yyyy" sourceLinked="1"/>
+        <c:numFmt formatCode="m\/d\/yyyy" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="none"/>
@@ -10668,7 +10680,7 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:numFmt formatCode="m/d/yyyy" sourceLinked="1"/>
+        <c:numFmt formatCode="m\/d\/yyyy" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -10733,7 +10745,7 @@
         </c:scaling>
         <c:delete val="1"/>
         <c:axPos val="b"/>
-        <c:numFmt formatCode="m/d/yyyy" sourceLinked="1"/>
+        <c:numFmt formatCode="m\/d\/yyyy" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="none"/>
@@ -12474,8 +12486,8 @@
   </sheetPr>
   <dimension ref="B4:F29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B21" sqref="B21:F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="5"/>
@@ -12778,11 +12790,21 @@
       </c>
     </row>
     <row r="21" ht="22.5" customHeight="1" spans="2:6">
-      <c r="B21" s="34"/>
-      <c r="C21" s="52"/>
-      <c r="D21" s="50"/>
-      <c r="E21" s="47"/>
-      <c r="F21" s="63"/>
+      <c r="B21" s="34">
+        <v>43368</v>
+      </c>
+      <c r="C21" s="52">
+        <v>-0.01564</v>
+      </c>
+      <c r="D21" s="50">
+        <v>-0.01564</v>
+      </c>
+      <c r="E21" s="47">
+        <v>11.56</v>
+      </c>
+      <c r="F21" s="63">
+        <v>16.52</v>
+      </c>
     </row>
     <row r="22" ht="22.5" customHeight="1" spans="2:6">
       <c r="B22" s="34"/>

--- a/天天利一号2018年09月收益表.xlsx
+++ b/天天利一号2018年09月收益表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="22368" windowHeight="9947" firstSheet="6" activeTab="10"/>
+    <workbookView windowWidth="24135" windowHeight="13050" firstSheet="6" activeTab="10"/>
   </bookViews>
   <sheets>
     <sheet name="2015汇总" sheetId="1" r:id="rId1"/>
@@ -118,14 +118,14 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="8">
-    <numFmt numFmtId="176" formatCode="0.00_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="0.000%"/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="0.00_);[Red]\(0.00\)"/>
-    <numFmt numFmtId="179" formatCode="yyyy&quot;年&quot;m&quot;月&quot;;@"/>
+    <numFmt numFmtId="176" formatCode="0.00_);[Red]\(0.00\)"/>
+    <numFmt numFmtId="177" formatCode="yyyy&quot;年&quot;m&quot;月&quot;;@"/>
+    <numFmt numFmtId="178" formatCode="0.00_ "/>
+    <numFmt numFmtId="179" formatCode="0.000%"/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -167,11 +167,26 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -183,7 +198,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -191,7 +214,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -205,14 +235,53 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -228,84 +297,15 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -332,7 +332,115 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -344,13 +452,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -362,97 +500,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -464,55 +512,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -667,6 +667,26 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -678,6 +698,15 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -700,19 +729,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -746,24 +764,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -772,10 +772,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -784,133 +784,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="28" borderId="18" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="16" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="34" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="14" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -921,58 +921,58 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
+    <xf numFmtId="177" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="10" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="10" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="10" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="10" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -981,13 +981,13 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1041,31 +1041,31 @@
     <xf numFmtId="10" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="179" fontId="0" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="179" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -1083,19 +1083,19 @@
     <xf numFmtId="2" fontId="0" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="179" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="10" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="10" fontId="0" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="0" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -1107,7 +1107,7 @@
     <xf numFmtId="2" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -1122,37 +1122,37 @@
     <xf numFmtId="2" fontId="0" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="0" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="0" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="10" fontId="1" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="1" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="1" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="0" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
+    <xf numFmtId="178" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="2" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1161,10 +1161,10 @@
     <xf numFmtId="14" fontId="2" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" quotePrefix="1">
+    <xf numFmtId="179" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" quotePrefix="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" quotePrefix="1">
+    <xf numFmtId="179" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" quotePrefix="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -3207,52 +3207,55 @@
               <c:strCache>
                 <c:ptCount val="24"/>
                 <c:pt idx="0" c:formatCode="yyyy/m/d">
-                  <c:v>2018-9-3</c:v>
+                  <c:v>2018/9/3</c:v>
                 </c:pt>
                 <c:pt idx="1" c:formatCode="yyyy/m/d">
-                  <c:v>2018-9-4</c:v>
+                  <c:v>2018/9/4</c:v>
                 </c:pt>
                 <c:pt idx="2" c:formatCode="yyyy/m/d">
-                  <c:v>2018-9-5</c:v>
+                  <c:v>2018/9/5</c:v>
                 </c:pt>
                 <c:pt idx="3" c:formatCode="yyyy/m/d">
-                  <c:v>2018-9-6</c:v>
+                  <c:v>2018/9/6</c:v>
                 </c:pt>
                 <c:pt idx="4" c:formatCode="yyyy/m/d">
-                  <c:v>2018-9-7</c:v>
+                  <c:v>2018/9/7</c:v>
                 </c:pt>
                 <c:pt idx="5" c:formatCode="yyyy/m/d">
-                  <c:v>2018-9-10</c:v>
+                  <c:v>2018/9/10</c:v>
                 </c:pt>
                 <c:pt idx="6" c:formatCode="yyyy/m/d">
-                  <c:v>2018-9-11</c:v>
+                  <c:v>2018/9/11</c:v>
                 </c:pt>
                 <c:pt idx="7" c:formatCode="yyyy/m/d">
-                  <c:v>2018-9-12</c:v>
+                  <c:v>2018/9/12</c:v>
                 </c:pt>
                 <c:pt idx="8" c:formatCode="yyyy/m/d">
-                  <c:v>2018-9-13</c:v>
+                  <c:v>2018/9/13</c:v>
                 </c:pt>
                 <c:pt idx="9" c:formatCode="yyyy/m/d">
-                  <c:v>2018-9-14</c:v>
+                  <c:v>2018/9/14</c:v>
                 </c:pt>
                 <c:pt idx="10" c:formatCode="yyyy/m/d">
-                  <c:v>2018-9-17</c:v>
+                  <c:v>2018/9/17</c:v>
                 </c:pt>
                 <c:pt idx="11" c:formatCode="yyyy/m/d">
-                  <c:v>2018-9-18</c:v>
+                  <c:v>2018/9/18</c:v>
                 </c:pt>
                 <c:pt idx="12" c:formatCode="yyyy/m/d">
-                  <c:v>2018-9-19</c:v>
+                  <c:v>2018/9/19</c:v>
                 </c:pt>
                 <c:pt idx="13" c:formatCode="yyyy/m/d">
-                  <c:v>2018-9-20</c:v>
+                  <c:v>2018/9/20</c:v>
                 </c:pt>
                 <c:pt idx="14" c:formatCode="yyyy/m/d">
-                  <c:v>2018-9-21</c:v>
+                  <c:v>2018/9/21</c:v>
                 </c:pt>
                 <c:pt idx="15" c:formatCode="yyyy/m/d">
-                  <c:v>2018-9-25</c:v>
+                  <c:v>2018/9/25</c:v>
+                </c:pt>
+                <c:pt idx="16" c:formatCode="yyyy/m/d">
+                  <c:v>2018/9/26</c:v>
                 </c:pt>
                 <c:pt idx="23" c:formatCode="yyyy/m/d">
                   <c:v>合计</c:v>
@@ -3407,52 +3410,55 @@
               <c:strCache>
                 <c:ptCount val="24"/>
                 <c:pt idx="0" c:formatCode="yyyy/m/d">
-                  <c:v>2018-9-3</c:v>
+                  <c:v>2018/9/3</c:v>
                 </c:pt>
                 <c:pt idx="1" c:formatCode="yyyy/m/d">
-                  <c:v>2018-9-4</c:v>
+                  <c:v>2018/9/4</c:v>
                 </c:pt>
                 <c:pt idx="2" c:formatCode="yyyy/m/d">
-                  <c:v>2018-9-5</c:v>
+                  <c:v>2018/9/5</c:v>
                 </c:pt>
                 <c:pt idx="3" c:formatCode="yyyy/m/d">
-                  <c:v>2018-9-6</c:v>
+                  <c:v>2018/9/6</c:v>
                 </c:pt>
                 <c:pt idx="4" c:formatCode="yyyy/m/d">
-                  <c:v>2018-9-7</c:v>
+                  <c:v>2018/9/7</c:v>
                 </c:pt>
                 <c:pt idx="5" c:formatCode="yyyy/m/d">
-                  <c:v>2018-9-10</c:v>
+                  <c:v>2018/9/10</c:v>
                 </c:pt>
                 <c:pt idx="6" c:formatCode="yyyy/m/d">
-                  <c:v>2018-9-11</c:v>
+                  <c:v>2018/9/11</c:v>
                 </c:pt>
                 <c:pt idx="7" c:formatCode="yyyy/m/d">
-                  <c:v>2018-9-12</c:v>
+                  <c:v>2018/9/12</c:v>
                 </c:pt>
                 <c:pt idx="8" c:formatCode="yyyy/m/d">
-                  <c:v>2018-9-13</c:v>
+                  <c:v>2018/9/13</c:v>
                 </c:pt>
                 <c:pt idx="9" c:formatCode="yyyy/m/d">
-                  <c:v>2018-9-14</c:v>
+                  <c:v>2018/9/14</c:v>
                 </c:pt>
                 <c:pt idx="10" c:formatCode="yyyy/m/d">
-                  <c:v>2018-9-17</c:v>
+                  <c:v>2018/9/17</c:v>
                 </c:pt>
                 <c:pt idx="11" c:formatCode="yyyy/m/d">
-                  <c:v>2018-9-18</c:v>
+                  <c:v>2018/9/18</c:v>
                 </c:pt>
                 <c:pt idx="12" c:formatCode="yyyy/m/d">
-                  <c:v>2018-9-19</c:v>
+                  <c:v>2018/9/19</c:v>
                 </c:pt>
                 <c:pt idx="13" c:formatCode="yyyy/m/d">
-                  <c:v>2018-9-20</c:v>
+                  <c:v>2018/9/20</c:v>
                 </c:pt>
                 <c:pt idx="14" c:formatCode="yyyy/m/d">
-                  <c:v>2018-9-21</c:v>
+                  <c:v>2018/9/21</c:v>
                 </c:pt>
                 <c:pt idx="15" c:formatCode="yyyy/m/d">
-                  <c:v>2018-9-25</c:v>
+                  <c:v>2018/9/25</c:v>
+                </c:pt>
+                <c:pt idx="16" c:formatCode="yyyy/m/d">
+                  <c:v>2018/9/26</c:v>
                 </c:pt>
                 <c:pt idx="23" c:formatCode="yyyy/m/d">
                   <c:v>合计</c:v>
@@ -10875,8 +10881,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="4233545" y="2036445"/>
-        <a:ext cx="14596110" cy="7077075"/>
+        <a:off x="4695825" y="1990725"/>
+        <a:ext cx="16173450" cy="7077075"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -10910,8 +10916,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="5538470" y="1360170"/>
-        <a:ext cx="9117965" cy="5017770"/>
+        <a:off x="6137910" y="1325880"/>
+        <a:ext cx="10141585" cy="5017770"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -10945,8 +10951,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="6955790" y="883285"/>
-        <a:ext cx="9117330" cy="4183380"/>
+        <a:off x="7673340" y="848995"/>
+        <a:ext cx="10141585" cy="4183380"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -10980,8 +10986,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="4638040" y="456565"/>
-        <a:ext cx="9030970" cy="4359910"/>
+        <a:off x="5100320" y="433705"/>
+        <a:ext cx="10055225" cy="4337050"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -11015,8 +11021,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="4951730" y="344805"/>
-        <a:ext cx="8574405" cy="5372100"/>
+        <a:off x="5414010" y="333375"/>
+        <a:ext cx="9598660" cy="5257800"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -11050,8 +11056,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="5071745" y="365760"/>
-        <a:ext cx="9237345" cy="6006465"/>
+        <a:off x="5534025" y="342900"/>
+        <a:ext cx="10334625" cy="5857875"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -11085,8 +11091,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="4233545" y="1424940"/>
-        <a:ext cx="9305925" cy="5915025"/>
+        <a:off x="4695825" y="1390650"/>
+        <a:ext cx="10334625" cy="5915025"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -11120,8 +11126,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="4881880" y="1034415"/>
-        <a:ext cx="8715375" cy="5781675"/>
+        <a:off x="5344160" y="1000125"/>
+        <a:ext cx="9744075" cy="5781675"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -11155,8 +11161,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="4248785" y="1050925"/>
-        <a:ext cx="9290050" cy="5894705"/>
+        <a:off x="4711065" y="1016635"/>
+        <a:ext cx="10314305" cy="5894705"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -11190,8 +11196,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="4513580" y="1105535"/>
-        <a:ext cx="9031605" cy="5894705"/>
+        <a:off x="4975860" y="1071245"/>
+        <a:ext cx="10055860" cy="5894705"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -11225,8 +11231,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="4638040" y="456565"/>
-        <a:ext cx="9030970" cy="5129530"/>
+        <a:off x="5100320" y="433705"/>
+        <a:ext cx="10055225" cy="5118100"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -11260,8 +11266,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="4323080" y="1217295"/>
-        <a:ext cx="9116695" cy="5461000"/>
+        <a:off x="4785360" y="1183005"/>
+        <a:ext cx="10140950" cy="5461000"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -11295,8 +11301,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="4951730" y="1312545"/>
-        <a:ext cx="9049385" cy="5417185"/>
+        <a:off x="5414010" y="1278255"/>
+        <a:ext cx="10141585" cy="5417185"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -11602,12 +11608,12 @@
       <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
   <cols>
     <col min="1" max="1" width="9" style="1"/>
     <col min="2" max="2" width="15" style="1" customWidth="1"/>
     <col min="3" max="3" width="16.75" style="1" customWidth="1"/>
-    <col min="4" max="4" width="19.8796296296296" style="79" customWidth="1"/>
+    <col min="4" max="4" width="19.8833333333333" style="79" customWidth="1"/>
     <col min="5" max="5" width="18" style="1" customWidth="1"/>
     <col min="6" max="16384" width="9" style="1"/>
   </cols>
@@ -12192,16 +12198,16 @@
       <selection activeCell="F28" sqref="F28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
   <cols>
     <col min="1" max="1" width="9" style="1"/>
     <col min="2" max="2" width="15" style="1" customWidth="1"/>
     <col min="3" max="3" width="16.75" style="41" customWidth="1"/>
-    <col min="4" max="4" width="19.8796296296296" style="71" customWidth="1"/>
+    <col min="4" max="4" width="19.8833333333333" style="71" customWidth="1"/>
     <col min="5" max="5" width="18" style="1" customWidth="1"/>
     <col min="6" max="17" width="9" style="1"/>
-    <col min="18" max="18" width="8.37962962962963" style="1" customWidth="1"/>
-    <col min="19" max="19" width="8.87962962962963" style="1" customWidth="1"/>
+    <col min="18" max="18" width="8.38333333333333" style="1" customWidth="1"/>
+    <col min="19" max="19" width="8.88333333333333" style="1" customWidth="1"/>
     <col min="20" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
@@ -12487,21 +12493,21 @@
   <dimension ref="B4:F29"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21:F21"/>
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
   <cols>
     <col min="1" max="1" width="9" style="1"/>
     <col min="2" max="2" width="15" style="1" customWidth="1"/>
     <col min="3" max="3" width="16.75" style="41" customWidth="1"/>
     <col min="4" max="4" width="16.75" style="42" customWidth="1"/>
     <col min="5" max="5" width="16.75" style="43" customWidth="1"/>
-    <col min="6" max="6" width="19.8796296296296" style="43" customWidth="1"/>
+    <col min="6" max="6" width="19.8833333333333" style="43" customWidth="1"/>
     <col min="7" max="7" width="18" style="1" customWidth="1"/>
     <col min="8" max="19" width="9" style="1"/>
-    <col min="20" max="20" width="8.37962962962963" style="1" customWidth="1"/>
-    <col min="21" max="21" width="8.87962962962963" style="1" customWidth="1"/>
+    <col min="20" max="20" width="8.38333333333333" style="1" customWidth="1"/>
+    <col min="21" max="21" width="8.88333333333333" style="1" customWidth="1"/>
     <col min="22" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
@@ -12807,7 +12813,9 @@
       </c>
     </row>
     <row r="22" ht="22.5" customHeight="1" spans="2:6">
-      <c r="B22" s="34"/>
+      <c r="B22" s="34">
+        <v>43369</v>
+      </c>
       <c r="C22" s="58"/>
       <c r="D22" s="58"/>
       <c r="E22" s="63"/>
@@ -12886,16 +12894,16 @@
       <selection activeCell="I19" sqref="I19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
   <cols>
     <col min="1" max="1" width="9" style="1"/>
     <col min="2" max="2" width="15" style="1" customWidth="1"/>
     <col min="3" max="3" width="16.75" style="3" customWidth="1"/>
-    <col min="4" max="4" width="19.8796296296296" style="28" customWidth="1"/>
+    <col min="4" max="4" width="19.8833333333333" style="28" customWidth="1"/>
     <col min="5" max="5" width="18" style="1" customWidth="1"/>
     <col min="6" max="17" width="9" style="1"/>
-    <col min="18" max="18" width="8.37962962962963" style="1" customWidth="1"/>
-    <col min="19" max="19" width="8.87962962962963" style="1" customWidth="1"/>
+    <col min="18" max="18" width="8.38333333333333" style="1" customWidth="1"/>
+    <col min="19" max="19" width="8.88333333333333" style="1" customWidth="1"/>
     <col min="20" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
@@ -13146,10 +13154,10 @@
       <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
   <cols>
     <col min="1" max="1" width="9" style="20"/>
-    <col min="2" max="4" width="31.1296296296296" style="20" customWidth="1"/>
+    <col min="2" max="4" width="31.1333333333333" style="20" customWidth="1"/>
     <col min="5" max="16384" width="9" style="20"/>
   </cols>
   <sheetData>
@@ -13397,16 +13405,16 @@
       <selection activeCell="U6" sqref="U6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
   <cols>
     <col min="1" max="1" width="9" style="1"/>
     <col min="2" max="2" width="15" style="2" customWidth="1"/>
     <col min="3" max="3" width="16.75" style="3" customWidth="1"/>
-    <col min="4" max="4" width="19.8796296296296" style="4" customWidth="1"/>
+    <col min="4" max="4" width="19.8833333333333" style="4" customWidth="1"/>
     <col min="5" max="5" width="18" style="1" customWidth="1"/>
     <col min="6" max="17" width="9" style="1"/>
-    <col min="18" max="18" width="8.37962962962963" style="1" customWidth="1"/>
-    <col min="19" max="19" width="8.87962962962963" style="1" customWidth="1"/>
+    <col min="18" max="18" width="8.38333333333333" style="1" customWidth="1"/>
+    <col min="19" max="19" width="8.88333333333333" style="1" customWidth="1"/>
     <col min="20" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
@@ -13530,12 +13538,12 @@
       <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
   <cols>
     <col min="1" max="1" width="9" style="1"/>
     <col min="2" max="2" width="15" style="1" customWidth="1"/>
     <col min="3" max="3" width="16.75" style="1" customWidth="1"/>
-    <col min="4" max="4" width="19.8796296296296" style="79" customWidth="1"/>
+    <col min="4" max="4" width="19.8833333333333" style="79" customWidth="1"/>
     <col min="5" max="5" width="18" style="1" customWidth="1"/>
     <col min="6" max="16384" width="9" style="1"/>
   </cols>
@@ -13656,12 +13664,12 @@
       <selection activeCell="C28" sqref="C28:D28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="9" style="1"/>
     <col min="2" max="2" width="15" style="1" customWidth="1"/>
     <col min="3" max="3" width="16.75" style="1" customWidth="1"/>
-    <col min="4" max="4" width="19.8796296296296" style="79" customWidth="1"/>
+    <col min="4" max="4" width="19.8833333333333" style="79" customWidth="1"/>
     <col min="5" max="5" width="18" style="1" customWidth="1"/>
     <col min="6" max="16384" width="9" style="1"/>
   </cols>
@@ -13963,15 +13971,15 @@
       <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
   <cols>
     <col min="1" max="1" width="9" style="1"/>
     <col min="2" max="2" width="15" style="1" customWidth="1"/>
     <col min="3" max="3" width="16.75" style="3" customWidth="1"/>
-    <col min="4" max="4" width="19.8796296296296" style="71" customWidth="1"/>
+    <col min="4" max="4" width="19.8833333333333" style="71" customWidth="1"/>
     <col min="5" max="5" width="18" style="1" customWidth="1"/>
     <col min="6" max="18" width="9" style="1"/>
-    <col min="19" max="19" width="8.87962962962963" style="1" customWidth="1"/>
+    <col min="19" max="19" width="8.88333333333333" style="1" customWidth="1"/>
     <col min="20" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
@@ -14277,16 +14285,16 @@
       <selection activeCell="E27" sqref="E27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
   <cols>
     <col min="1" max="1" width="9" style="1"/>
     <col min="2" max="2" width="15" style="1" customWidth="1"/>
     <col min="3" max="3" width="16.75" style="3" customWidth="1"/>
-    <col min="4" max="4" width="19.8796296296296" style="71" customWidth="1"/>
+    <col min="4" max="4" width="19.8833333333333" style="71" customWidth="1"/>
     <col min="5" max="5" width="18" style="1" customWidth="1"/>
     <col min="6" max="17" width="9" style="1"/>
-    <col min="18" max="18" width="8.37962962962963" style="1" customWidth="1"/>
-    <col min="19" max="19" width="8.87962962962963" style="1" customWidth="1"/>
+    <col min="18" max="18" width="8.38333333333333" style="1" customWidth="1"/>
+    <col min="19" max="19" width="8.88333333333333" style="1" customWidth="1"/>
     <col min="20" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
@@ -14686,7 +14694,7 @@
         <v>10.38</v>
       </c>
     </row>
-    <row r="42" ht="15.6" spans="2:4">
+    <row r="42" ht="14.25" spans="2:4">
       <c r="B42" s="30">
         <v>42425</v>
       </c>
@@ -14848,16 +14856,16 @@
       <selection activeCell="D49" sqref="D49"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
   <cols>
     <col min="1" max="1" width="9" style="1"/>
     <col min="2" max="2" width="15" style="1" customWidth="1"/>
     <col min="3" max="3" width="16.75" style="3" customWidth="1"/>
-    <col min="4" max="4" width="19.8796296296296" style="71" customWidth="1"/>
+    <col min="4" max="4" width="19.8833333333333" style="71" customWidth="1"/>
     <col min="5" max="5" width="18" style="1" customWidth="1"/>
     <col min="6" max="17" width="9" style="1"/>
-    <col min="18" max="18" width="8.37962962962963" style="1" customWidth="1"/>
-    <col min="19" max="19" width="8.87962962962963" style="1" customWidth="1"/>
+    <col min="18" max="18" width="8.38333333333333" style="1" customWidth="1"/>
+    <col min="19" max="19" width="8.88333333333333" style="1" customWidth="1"/>
     <col min="20" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
@@ -15165,16 +15173,16 @@
       <selection activeCell="B22" sqref="B22:D22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
   <cols>
     <col min="1" max="1" width="9" style="1"/>
     <col min="2" max="2" width="15" style="1" customWidth="1"/>
     <col min="3" max="3" width="16.75" style="3" customWidth="1"/>
-    <col min="4" max="4" width="19.8796296296296" style="28" customWidth="1"/>
+    <col min="4" max="4" width="19.8833333333333" style="28" customWidth="1"/>
     <col min="5" max="5" width="18" style="1" customWidth="1"/>
     <col min="6" max="17" width="9" style="1"/>
-    <col min="18" max="18" width="8.37962962962963" style="1" customWidth="1"/>
-    <col min="19" max="19" width="8.87962962962963" style="1" customWidth="1"/>
+    <col min="18" max="18" width="8.38333333333333" style="1" customWidth="1"/>
+    <col min="19" max="19" width="8.88333333333333" style="1" customWidth="1"/>
     <col min="20" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
@@ -15403,16 +15411,16 @@
       <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
   <cols>
     <col min="1" max="1" width="9" style="1"/>
     <col min="2" max="2" width="15" style="1" customWidth="1"/>
     <col min="3" max="3" width="16.75" style="3" customWidth="1"/>
-    <col min="4" max="4" width="19.8796296296296" style="71" customWidth="1"/>
+    <col min="4" max="4" width="19.8833333333333" style="71" customWidth="1"/>
     <col min="5" max="5" width="18" style="1" customWidth="1"/>
     <col min="6" max="17" width="9" style="1"/>
-    <col min="18" max="18" width="8.37962962962963" style="1" customWidth="1"/>
-    <col min="19" max="19" width="8.87962962962963" style="1" customWidth="1"/>
+    <col min="18" max="18" width="8.38333333333333" style="1" customWidth="1"/>
+    <col min="19" max="19" width="8.88333333333333" style="1" customWidth="1"/>
     <col min="20" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
@@ -15718,16 +15726,16 @@
       <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
   <cols>
     <col min="1" max="1" width="9" style="1"/>
     <col min="2" max="2" width="15" style="1" customWidth="1"/>
     <col min="3" max="3" width="16.75" style="41" customWidth="1"/>
-    <col min="4" max="4" width="19.8796296296296" style="71" customWidth="1"/>
+    <col min="4" max="4" width="19.8833333333333" style="71" customWidth="1"/>
     <col min="5" max="5" width="18" style="1" customWidth="1"/>
     <col min="6" max="17" width="9" style="1"/>
-    <col min="18" max="18" width="8.37962962962963" style="1" customWidth="1"/>
-    <col min="19" max="19" width="8.87962962962963" style="1" customWidth="1"/>
+    <col min="18" max="18" width="8.38333333333333" style="1" customWidth="1"/>
+    <col min="19" max="19" width="8.88333333333333" style="1" customWidth="1"/>
     <col min="20" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>

--- a/天天利一号2018年09月收益表.xlsx
+++ b/天天利一号2018年09月收益表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="24135" windowHeight="13050" firstSheet="6" activeTab="10"/>
+    <workbookView windowWidth="22368" windowHeight="9947" firstSheet="6" activeTab="10"/>
   </bookViews>
   <sheets>
     <sheet name="2015汇总" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29">
   <si>
     <t>日期</t>
   </si>
@@ -80,6 +80,9 @@
     <t>客户盈亏</t>
   </si>
   <si>
+    <t>天天利盈亏额/元</t>
+  </si>
+  <si>
     <t>-1.616%</t>
   </si>
   <si>
@@ -118,14 +121,14 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="8">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="0.00_);[Red]\(0.00\)"/>
     <numFmt numFmtId="177" formatCode="yyyy&quot;年&quot;m&quot;月&quot;;@"/>
-    <numFmt numFmtId="178" formatCode="0.00_ "/>
-    <numFmt numFmtId="179" formatCode="0.000%"/>
+    <numFmt numFmtId="178" formatCode="0.000%"/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="0.00_ "/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -167,23 +170,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -191,22 +187,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -235,23 +216,22 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -259,6 +239,14 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -281,15 +269,38 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -298,14 +309,6 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -332,13 +335,127 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -356,6 +473,30 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -368,151 +509,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -667,13 +670,41 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -687,17 +718,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -726,30 +753,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -772,10 +775,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -784,133 +787,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="28" borderId="18" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="19" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="23" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="19" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="20" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="34" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -981,13 +984,13 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1041,31 +1044,31 @@
     <xf numFmtId="10" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="0" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="178" fontId="0" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="178" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -1083,19 +1086,19 @@
     <xf numFmtId="2" fontId="0" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="178" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="10" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="10" fontId="0" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="0" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="0" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -1107,7 +1110,7 @@
     <xf numFmtId="2" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -1122,37 +1125,37 @@
     <xf numFmtId="2" fontId="0" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="0" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="0" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="0" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="10" fontId="1" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="1" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="1" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="0" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
+    <xf numFmtId="179" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="2" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1161,10 +1164,10 @@
     <xf numFmtId="14" fontId="2" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="179" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" quotePrefix="1">
+    <xf numFmtId="178" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" quotePrefix="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" quotePrefix="1">
+    <xf numFmtId="178" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" quotePrefix="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -3140,7 +3143,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>天天利盈亏额</c:v>
+                  <c:v>天天利盈亏额/元</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3207,55 +3210,55 @@
               <c:strCache>
                 <c:ptCount val="24"/>
                 <c:pt idx="0" c:formatCode="yyyy/m/d">
-                  <c:v>2018/9/3</c:v>
+                  <c:v>2018-9-3</c:v>
                 </c:pt>
                 <c:pt idx="1" c:formatCode="yyyy/m/d">
-                  <c:v>2018/9/4</c:v>
+                  <c:v>2018-9-4</c:v>
                 </c:pt>
                 <c:pt idx="2" c:formatCode="yyyy/m/d">
-                  <c:v>2018/9/5</c:v>
+                  <c:v>2018-9-5</c:v>
                 </c:pt>
                 <c:pt idx="3" c:formatCode="yyyy/m/d">
-                  <c:v>2018/9/6</c:v>
+                  <c:v>2018-9-6</c:v>
                 </c:pt>
                 <c:pt idx="4" c:formatCode="yyyy/m/d">
-                  <c:v>2018/9/7</c:v>
+                  <c:v>2018-9-7</c:v>
                 </c:pt>
                 <c:pt idx="5" c:formatCode="yyyy/m/d">
-                  <c:v>2018/9/10</c:v>
+                  <c:v>2018-9-10</c:v>
                 </c:pt>
                 <c:pt idx="6" c:formatCode="yyyy/m/d">
-                  <c:v>2018/9/11</c:v>
+                  <c:v>2018-9-11</c:v>
                 </c:pt>
                 <c:pt idx="7" c:formatCode="yyyy/m/d">
-                  <c:v>2018/9/12</c:v>
+                  <c:v>2018-9-12</c:v>
                 </c:pt>
                 <c:pt idx="8" c:formatCode="yyyy/m/d">
-                  <c:v>2018/9/13</c:v>
+                  <c:v>2018-9-13</c:v>
                 </c:pt>
                 <c:pt idx="9" c:formatCode="yyyy/m/d">
-                  <c:v>2018/9/14</c:v>
+                  <c:v>2018-9-14</c:v>
                 </c:pt>
                 <c:pt idx="10" c:formatCode="yyyy/m/d">
-                  <c:v>2018/9/17</c:v>
+                  <c:v>2018-9-17</c:v>
                 </c:pt>
                 <c:pt idx="11" c:formatCode="yyyy/m/d">
-                  <c:v>2018/9/18</c:v>
+                  <c:v>2018-9-18</c:v>
                 </c:pt>
                 <c:pt idx="12" c:formatCode="yyyy/m/d">
-                  <c:v>2018/9/19</c:v>
+                  <c:v>2018-9-19</c:v>
                 </c:pt>
                 <c:pt idx="13" c:formatCode="yyyy/m/d">
-                  <c:v>2018/9/20</c:v>
+                  <c:v>2018-9-20</c:v>
                 </c:pt>
                 <c:pt idx="14" c:formatCode="yyyy/m/d">
-                  <c:v>2018/9/21</c:v>
+                  <c:v>2018-9-21</c:v>
                 </c:pt>
                 <c:pt idx="15" c:formatCode="yyyy/m/d">
-                  <c:v>2018/9/25</c:v>
+                  <c:v>2018-9-25</c:v>
                 </c:pt>
                 <c:pt idx="16" c:formatCode="yyyy/m/d">
-                  <c:v>2018/9/26</c:v>
+                  <c:v>2018-9-26</c:v>
                 </c:pt>
                 <c:pt idx="23" c:formatCode="yyyy/m/d">
                   <c:v>合计</c:v>
@@ -3316,6 +3319,9 @@
                 </c:pt>
                 <c:pt idx="15">
                   <c:v>16.52</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>11.73</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3410,55 +3416,55 @@
               <c:strCache>
                 <c:ptCount val="24"/>
                 <c:pt idx="0" c:formatCode="yyyy/m/d">
-                  <c:v>2018/9/3</c:v>
+                  <c:v>2018-9-3</c:v>
                 </c:pt>
                 <c:pt idx="1" c:formatCode="yyyy/m/d">
-                  <c:v>2018/9/4</c:v>
+                  <c:v>2018-9-4</c:v>
                 </c:pt>
                 <c:pt idx="2" c:formatCode="yyyy/m/d">
-                  <c:v>2018/9/5</c:v>
+                  <c:v>2018-9-5</c:v>
                 </c:pt>
                 <c:pt idx="3" c:formatCode="yyyy/m/d">
-                  <c:v>2018/9/6</c:v>
+                  <c:v>2018-9-6</c:v>
                 </c:pt>
                 <c:pt idx="4" c:formatCode="yyyy/m/d">
-                  <c:v>2018/9/7</c:v>
+                  <c:v>2018-9-7</c:v>
                 </c:pt>
                 <c:pt idx="5" c:formatCode="yyyy/m/d">
-                  <c:v>2018/9/10</c:v>
+                  <c:v>2018-9-10</c:v>
                 </c:pt>
                 <c:pt idx="6" c:formatCode="yyyy/m/d">
-                  <c:v>2018/9/11</c:v>
+                  <c:v>2018-9-11</c:v>
                 </c:pt>
                 <c:pt idx="7" c:formatCode="yyyy/m/d">
-                  <c:v>2018/9/12</c:v>
+                  <c:v>2018-9-12</c:v>
                 </c:pt>
                 <c:pt idx="8" c:formatCode="yyyy/m/d">
-                  <c:v>2018/9/13</c:v>
+                  <c:v>2018-9-13</c:v>
                 </c:pt>
                 <c:pt idx="9" c:formatCode="yyyy/m/d">
-                  <c:v>2018/9/14</c:v>
+                  <c:v>2018-9-14</c:v>
                 </c:pt>
                 <c:pt idx="10" c:formatCode="yyyy/m/d">
-                  <c:v>2018/9/17</c:v>
+                  <c:v>2018-9-17</c:v>
                 </c:pt>
                 <c:pt idx="11" c:formatCode="yyyy/m/d">
-                  <c:v>2018/9/18</c:v>
+                  <c:v>2018-9-18</c:v>
                 </c:pt>
                 <c:pt idx="12" c:formatCode="yyyy/m/d">
-                  <c:v>2018/9/19</c:v>
+                  <c:v>2018-9-19</c:v>
                 </c:pt>
                 <c:pt idx="13" c:formatCode="yyyy/m/d">
-                  <c:v>2018/9/20</c:v>
+                  <c:v>2018-9-20</c:v>
                 </c:pt>
                 <c:pt idx="14" c:formatCode="yyyy/m/d">
-                  <c:v>2018/9/21</c:v>
+                  <c:v>2018-9-21</c:v>
                 </c:pt>
                 <c:pt idx="15" c:formatCode="yyyy/m/d">
-                  <c:v>2018/9/25</c:v>
+                  <c:v>2018-9-25</c:v>
                 </c:pt>
                 <c:pt idx="16" c:formatCode="yyyy/m/d">
-                  <c:v>2018/9/26</c:v>
+                  <c:v>2018-9-26</c:v>
                 </c:pt>
                 <c:pt idx="23" c:formatCode="yyyy/m/d">
                   <c:v>合计</c:v>
@@ -3519,6 +3525,9 @@
                 </c:pt>
                 <c:pt idx="15" c:formatCode="0.00%">
                   <c:v>-0.01564</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>-0.00743</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10881,8 +10890,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="4695825" y="1990725"/>
-        <a:ext cx="16173450" cy="7077075"/>
+        <a:off x="4233545" y="2036445"/>
+        <a:ext cx="14596110" cy="7077075"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -10916,8 +10925,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="6137910" y="1325880"/>
-        <a:ext cx="10141585" cy="5017770"/>
+        <a:off x="5538470" y="1360170"/>
+        <a:ext cx="9117965" cy="5017770"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -10951,8 +10960,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="7673340" y="848995"/>
-        <a:ext cx="10141585" cy="4183380"/>
+        <a:off x="6955790" y="883285"/>
+        <a:ext cx="9117330" cy="4183380"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -10986,8 +10995,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="5100320" y="433705"/>
-        <a:ext cx="10055225" cy="4337050"/>
+        <a:off x="4638040" y="456565"/>
+        <a:ext cx="9030970" cy="4359910"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -11021,8 +11030,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="5414010" y="333375"/>
-        <a:ext cx="9598660" cy="5257800"/>
+        <a:off x="4951730" y="344805"/>
+        <a:ext cx="8574405" cy="5372100"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -11056,8 +11065,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="5534025" y="342900"/>
-        <a:ext cx="10334625" cy="5857875"/>
+        <a:off x="5071745" y="365760"/>
+        <a:ext cx="9237345" cy="6006465"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -11091,8 +11100,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="4695825" y="1390650"/>
-        <a:ext cx="10334625" cy="5915025"/>
+        <a:off x="4233545" y="1424940"/>
+        <a:ext cx="9305925" cy="5915025"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -11126,8 +11135,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="5344160" y="1000125"/>
-        <a:ext cx="9744075" cy="5781675"/>
+        <a:off x="4881880" y="1034415"/>
+        <a:ext cx="8715375" cy="5781675"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -11161,8 +11170,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="4711065" y="1016635"/>
-        <a:ext cx="10314305" cy="5894705"/>
+        <a:off x="4248785" y="1050925"/>
+        <a:ext cx="9290050" cy="5894705"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -11196,8 +11205,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="4975860" y="1071245"/>
-        <a:ext cx="10055860" cy="5894705"/>
+        <a:off x="4513580" y="1105535"/>
+        <a:ext cx="9031605" cy="5894705"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -11231,8 +11240,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="5100320" y="433705"/>
-        <a:ext cx="10055225" cy="5118100"/>
+        <a:off x="4638040" y="456565"/>
+        <a:ext cx="9030970" cy="5129530"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -11266,8 +11275,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="4785360" y="1183005"/>
-        <a:ext cx="10140950" cy="5461000"/>
+        <a:off x="4323080" y="1217295"/>
+        <a:ext cx="9116695" cy="5461000"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -11301,8 +11310,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="5414010" y="1278255"/>
-        <a:ext cx="10141585" cy="5417185"/>
+        <a:off x="4951730" y="1312545"/>
+        <a:ext cx="9049385" cy="5417185"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -11608,12 +11617,12 @@
       <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="3"/>
   <cols>
     <col min="1" max="1" width="9" style="1"/>
     <col min="2" max="2" width="15" style="1" customWidth="1"/>
     <col min="3" max="3" width="16.75" style="1" customWidth="1"/>
-    <col min="4" max="4" width="19.8833333333333" style="79" customWidth="1"/>
+    <col min="4" max="4" width="19.8796296296296" style="79" customWidth="1"/>
     <col min="5" max="5" width="18" style="1" customWidth="1"/>
     <col min="6" max="16384" width="9" style="1"/>
   </cols>
@@ -12198,16 +12207,16 @@
       <selection activeCell="F28" sqref="F28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="3"/>
   <cols>
     <col min="1" max="1" width="9" style="1"/>
     <col min="2" max="2" width="15" style="1" customWidth="1"/>
     <col min="3" max="3" width="16.75" style="41" customWidth="1"/>
-    <col min="4" max="4" width="19.8833333333333" style="71" customWidth="1"/>
+    <col min="4" max="4" width="19.8796296296296" style="71" customWidth="1"/>
     <col min="5" max="5" width="18" style="1" customWidth="1"/>
     <col min="6" max="17" width="9" style="1"/>
-    <col min="18" max="18" width="8.38333333333333" style="1" customWidth="1"/>
-    <col min="19" max="19" width="8.88333333333333" style="1" customWidth="1"/>
+    <col min="18" max="18" width="8.37962962962963" style="1" customWidth="1"/>
+    <col min="19" max="19" width="8.87962962962963" style="1" customWidth="1"/>
     <col min="20" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
@@ -12492,22 +12501,22 @@
   </sheetPr>
   <dimension ref="B4:F29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="5"/>
   <cols>
     <col min="1" max="1" width="9" style="1"/>
     <col min="2" max="2" width="15" style="1" customWidth="1"/>
     <col min="3" max="3" width="16.75" style="41" customWidth="1"/>
     <col min="4" max="4" width="16.75" style="42" customWidth="1"/>
     <col min="5" max="5" width="16.75" style="43" customWidth="1"/>
-    <col min="6" max="6" width="19.8833333333333" style="43" customWidth="1"/>
+    <col min="6" max="6" width="19.8796296296296" style="43" customWidth="1"/>
     <col min="7" max="7" width="18" style="1" customWidth="1"/>
     <col min="8" max="19" width="9" style="1"/>
-    <col min="20" max="20" width="8.38333333333333" style="1" customWidth="1"/>
-    <col min="21" max="21" width="8.88333333333333" style="1" customWidth="1"/>
+    <col min="20" max="20" width="8.37962962962963" style="1" customWidth="1"/>
+    <col min="21" max="21" width="8.87962962962963" style="1" customWidth="1"/>
     <col min="22" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
@@ -12534,7 +12543,7 @@
         <v>16</v>
       </c>
       <c r="F5" s="45" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
     </row>
     <row r="6" ht="20.1" customHeight="1" spans="2:6">
@@ -12734,7 +12743,7 @@
         <v>-0.01616</v>
       </c>
       <c r="D17" s="82" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E17" s="47">
         <v>-7.43</v>
@@ -12751,7 +12760,7 @@
         <v>-0.0305</v>
       </c>
       <c r="D18" s="83" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E18" s="47">
         <v>-14.34</v>
@@ -12816,10 +12825,18 @@
       <c r="B22" s="34">
         <v>43369</v>
       </c>
-      <c r="C22" s="58"/>
-      <c r="D22" s="58"/>
-      <c r="E22" s="63"/>
-      <c r="F22" s="63"/>
+      <c r="C22" s="58">
+        <v>-0.00743</v>
+      </c>
+      <c r="D22" s="58">
+        <v>-0.00743</v>
+      </c>
+      <c r="E22" s="63">
+        <v>8.211</v>
+      </c>
+      <c r="F22" s="63">
+        <v>11.73</v>
+      </c>
     </row>
     <row r="23" ht="22.5" customHeight="1" spans="2:6">
       <c r="B23" s="34"/>
@@ -12894,16 +12911,16 @@
       <selection activeCell="I19" sqref="I19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="3"/>
   <cols>
     <col min="1" max="1" width="9" style="1"/>
     <col min="2" max="2" width="15" style="1" customWidth="1"/>
     <col min="3" max="3" width="16.75" style="3" customWidth="1"/>
-    <col min="4" max="4" width="19.8833333333333" style="28" customWidth="1"/>
+    <col min="4" max="4" width="19.8796296296296" style="28" customWidth="1"/>
     <col min="5" max="5" width="18" style="1" customWidth="1"/>
     <col min="6" max="17" width="9" style="1"/>
-    <col min="18" max="18" width="8.38333333333333" style="1" customWidth="1"/>
-    <col min="19" max="19" width="8.88333333333333" style="1" customWidth="1"/>
+    <col min="18" max="18" width="8.37962962962963" style="1" customWidth="1"/>
+    <col min="19" max="19" width="8.87962962962963" style="1" customWidth="1"/>
     <col min="20" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
@@ -13154,16 +13171,16 @@
       <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="3"/>
   <cols>
     <col min="1" max="1" width="9" style="20"/>
-    <col min="2" max="4" width="31.1333333333333" style="20" customWidth="1"/>
+    <col min="2" max="4" width="31.1296296296296" style="20" customWidth="1"/>
     <col min="5" max="16384" width="9" style="20"/>
   </cols>
   <sheetData>
     <row r="2" ht="30.75" customHeight="1" spans="2:4">
       <c r="B2" s="21" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C2" s="21"/>
       <c r="D2" s="21"/>
@@ -13188,7 +13205,7 @@
     </row>
     <row r="5" ht="26.25" customHeight="1" spans="2:4">
       <c r="B5" s="23" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C5" s="10">
         <v>0.0629</v>
@@ -13217,7 +13234,7 @@
     </row>
     <row r="8" ht="26.25" customHeight="1" spans="2:4">
       <c r="B8" s="23" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C8" s="10">
         <v>0.2748</v>
@@ -13246,7 +13263,7 @@
     </row>
     <row r="11" ht="26.25" customHeight="1" spans="2:4">
       <c r="B11" s="23" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C11" s="10">
         <v>0.5026</v>
@@ -13257,7 +13274,7 @@
     </row>
     <row r="12" ht="26.25" customHeight="1" spans="2:4">
       <c r="B12" s="25" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C12" s="26"/>
       <c r="D12" s="27"/>
@@ -13282,7 +13299,7 @@
     </row>
     <row r="15" ht="26.25" customHeight="1" spans="2:4">
       <c r="B15" s="23" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C15" s="10">
         <v>0.0643</v>
@@ -13311,7 +13328,7 @@
     </row>
     <row r="18" ht="26.25" customHeight="1" spans="2:4">
       <c r="B18" s="23" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C18" s="10">
         <v>0.1333</v>
@@ -13340,7 +13357,7 @@
     </row>
     <row r="21" ht="26.25" customHeight="1" spans="2:4">
       <c r="B21" s="23" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C21" s="10">
         <v>0.1768</v>
@@ -13369,7 +13386,7 @@
     </row>
     <row r="24" ht="26.25" customHeight="1" spans="2:4">
       <c r="B24" s="23" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C24" s="10">
         <v>0.243</v>
@@ -13405,16 +13422,16 @@
       <selection activeCell="U6" sqref="U6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="3"/>
   <cols>
     <col min="1" max="1" width="9" style="1"/>
     <col min="2" max="2" width="15" style="2" customWidth="1"/>
     <col min="3" max="3" width="16.75" style="3" customWidth="1"/>
-    <col min="4" max="4" width="19.8833333333333" style="4" customWidth="1"/>
+    <col min="4" max="4" width="19.8796296296296" style="4" customWidth="1"/>
     <col min="5" max="5" width="18" style="1" customWidth="1"/>
     <col min="6" max="17" width="9" style="1"/>
-    <col min="18" max="18" width="8.38333333333333" style="1" customWidth="1"/>
-    <col min="19" max="19" width="8.88333333333333" style="1" customWidth="1"/>
+    <col min="18" max="18" width="8.37962962962963" style="1" customWidth="1"/>
+    <col min="19" max="19" width="8.87962962962963" style="1" customWidth="1"/>
     <col min="20" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
@@ -13538,12 +13555,12 @@
       <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="3"/>
   <cols>
     <col min="1" max="1" width="9" style="1"/>
     <col min="2" max="2" width="15" style="1" customWidth="1"/>
     <col min="3" max="3" width="16.75" style="1" customWidth="1"/>
-    <col min="4" max="4" width="19.8833333333333" style="79" customWidth="1"/>
+    <col min="4" max="4" width="19.8796296296296" style="79" customWidth="1"/>
     <col min="5" max="5" width="18" style="1" customWidth="1"/>
     <col min="6" max="16384" width="9" style="1"/>
   </cols>
@@ -13664,12 +13681,12 @@
       <selection activeCell="C28" sqref="C28:D28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="9" style="1"/>
     <col min="2" max="2" width="15" style="1" customWidth="1"/>
     <col min="3" max="3" width="16.75" style="1" customWidth="1"/>
-    <col min="4" max="4" width="19.8833333333333" style="79" customWidth="1"/>
+    <col min="4" max="4" width="19.8796296296296" style="79" customWidth="1"/>
     <col min="5" max="5" width="18" style="1" customWidth="1"/>
     <col min="6" max="16384" width="9" style="1"/>
   </cols>
@@ -13971,15 +13988,15 @@
       <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="3"/>
   <cols>
     <col min="1" max="1" width="9" style="1"/>
     <col min="2" max="2" width="15" style="1" customWidth="1"/>
     <col min="3" max="3" width="16.75" style="3" customWidth="1"/>
-    <col min="4" max="4" width="19.8833333333333" style="71" customWidth="1"/>
+    <col min="4" max="4" width="19.8796296296296" style="71" customWidth="1"/>
     <col min="5" max="5" width="18" style="1" customWidth="1"/>
     <col min="6" max="18" width="9" style="1"/>
-    <col min="19" max="19" width="8.88333333333333" style="1" customWidth="1"/>
+    <col min="19" max="19" width="8.87962962962963" style="1" customWidth="1"/>
     <col min="20" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
@@ -14285,16 +14302,16 @@
       <selection activeCell="E27" sqref="E27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="3"/>
   <cols>
     <col min="1" max="1" width="9" style="1"/>
     <col min="2" max="2" width="15" style="1" customWidth="1"/>
     <col min="3" max="3" width="16.75" style="3" customWidth="1"/>
-    <col min="4" max="4" width="19.8833333333333" style="71" customWidth="1"/>
+    <col min="4" max="4" width="19.8796296296296" style="71" customWidth="1"/>
     <col min="5" max="5" width="18" style="1" customWidth="1"/>
     <col min="6" max="17" width="9" style="1"/>
-    <col min="18" max="18" width="8.38333333333333" style="1" customWidth="1"/>
-    <col min="19" max="19" width="8.88333333333333" style="1" customWidth="1"/>
+    <col min="18" max="18" width="8.37962962962963" style="1" customWidth="1"/>
+    <col min="19" max="19" width="8.87962962962963" style="1" customWidth="1"/>
     <col min="20" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
@@ -14694,7 +14711,7 @@
         <v>10.38</v>
       </c>
     </row>
-    <row r="42" ht="14.25" spans="2:4">
+    <row r="42" ht="15.6" spans="2:4">
       <c r="B42" s="30">
         <v>42425</v>
       </c>
@@ -14856,16 +14873,16 @@
       <selection activeCell="D49" sqref="D49"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="3"/>
   <cols>
     <col min="1" max="1" width="9" style="1"/>
     <col min="2" max="2" width="15" style="1" customWidth="1"/>
     <col min="3" max="3" width="16.75" style="3" customWidth="1"/>
-    <col min="4" max="4" width="19.8833333333333" style="71" customWidth="1"/>
+    <col min="4" max="4" width="19.8796296296296" style="71" customWidth="1"/>
     <col min="5" max="5" width="18" style="1" customWidth="1"/>
     <col min="6" max="17" width="9" style="1"/>
-    <col min="18" max="18" width="8.38333333333333" style="1" customWidth="1"/>
-    <col min="19" max="19" width="8.88333333333333" style="1" customWidth="1"/>
+    <col min="18" max="18" width="8.37962962962963" style="1" customWidth="1"/>
+    <col min="19" max="19" width="8.87962962962963" style="1" customWidth="1"/>
     <col min="20" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
@@ -15173,16 +15190,16 @@
       <selection activeCell="B22" sqref="B22:D22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="3"/>
   <cols>
     <col min="1" max="1" width="9" style="1"/>
     <col min="2" max="2" width="15" style="1" customWidth="1"/>
     <col min="3" max="3" width="16.75" style="3" customWidth="1"/>
-    <col min="4" max="4" width="19.8833333333333" style="28" customWidth="1"/>
+    <col min="4" max="4" width="19.8796296296296" style="28" customWidth="1"/>
     <col min="5" max="5" width="18" style="1" customWidth="1"/>
     <col min="6" max="17" width="9" style="1"/>
-    <col min="18" max="18" width="8.38333333333333" style="1" customWidth="1"/>
-    <col min="19" max="19" width="8.88333333333333" style="1" customWidth="1"/>
+    <col min="18" max="18" width="8.37962962962963" style="1" customWidth="1"/>
+    <col min="19" max="19" width="8.87962962962963" style="1" customWidth="1"/>
     <col min="20" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
@@ -15411,16 +15428,16 @@
       <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="3"/>
   <cols>
     <col min="1" max="1" width="9" style="1"/>
     <col min="2" max="2" width="15" style="1" customWidth="1"/>
     <col min="3" max="3" width="16.75" style="3" customWidth="1"/>
-    <col min="4" max="4" width="19.8833333333333" style="71" customWidth="1"/>
+    <col min="4" max="4" width="19.8796296296296" style="71" customWidth="1"/>
     <col min="5" max="5" width="18" style="1" customWidth="1"/>
     <col min="6" max="17" width="9" style="1"/>
-    <col min="18" max="18" width="8.38333333333333" style="1" customWidth="1"/>
-    <col min="19" max="19" width="8.88333333333333" style="1" customWidth="1"/>
+    <col min="18" max="18" width="8.37962962962963" style="1" customWidth="1"/>
+    <col min="19" max="19" width="8.87962962962963" style="1" customWidth="1"/>
     <col min="20" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
@@ -15726,16 +15743,16 @@
       <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="3"/>
   <cols>
     <col min="1" max="1" width="9" style="1"/>
     <col min="2" max="2" width="15" style="1" customWidth="1"/>
     <col min="3" max="3" width="16.75" style="41" customWidth="1"/>
-    <col min="4" max="4" width="19.8833333333333" style="71" customWidth="1"/>
+    <col min="4" max="4" width="19.8796296296296" style="71" customWidth="1"/>
     <col min="5" max="5" width="18" style="1" customWidth="1"/>
     <col min="6" max="17" width="9" style="1"/>
-    <col min="18" max="18" width="8.38333333333333" style="1" customWidth="1"/>
-    <col min="19" max="19" width="8.88333333333333" style="1" customWidth="1"/>
+    <col min="18" max="18" width="8.37962962962963" style="1" customWidth="1"/>
+    <col min="19" max="19" width="8.87962962962963" style="1" customWidth="1"/>
     <col min="20" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>

--- a/天天利一号2018年09月收益表.xlsx
+++ b/天天利一号2018年09月收益表.xlsx
@@ -121,14 +121,14 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="8">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="0.00_);[Red]\(0.00\)"/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="yyyy&quot;年&quot;m&quot;月&quot;;@"/>
     <numFmt numFmtId="178" formatCode="0.000%"/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="0.00_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="179" formatCode="0.00_ "/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -170,24 +170,38 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -202,7 +216,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -215,8 +229,17 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -229,16 +252,24 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -249,6 +280,22 @@
       <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -264,53 +311,6 @@
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -335,7 +335,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -347,7 +365,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -359,25 +383,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -389,13 +395,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -407,37 +419,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -461,49 +467,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -516,6 +492,30 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -670,17 +670,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -703,8 +699,23 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -714,26 +725,6 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -767,6 +758,15 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -775,10 +775,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -787,133 +787,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="19" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="19" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="20" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -3260,6 +3260,9 @@
                 <c:pt idx="16" c:formatCode="yyyy/m/d">
                   <c:v>2018-9-26</c:v>
                 </c:pt>
+                <c:pt idx="17" c:formatCode="yyyy/m/d">
+                  <c:v>2018-9-27</c:v>
+                </c:pt>
                 <c:pt idx="23" c:formatCode="yyyy/m/d">
                   <c:v>合计</c:v>
                 </c:pt>
@@ -3322,6 +3325,9 @@
                 </c:pt>
                 <c:pt idx="16">
                   <c:v>11.73</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>-4.34</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3466,6 +3472,9 @@
                 <c:pt idx="16" c:formatCode="yyyy/m/d">
                   <c:v>2018-9-26</c:v>
                 </c:pt>
+                <c:pt idx="17" c:formatCode="yyyy/m/d">
+                  <c:v>2018-9-27</c:v>
+                </c:pt>
                 <c:pt idx="23" c:formatCode="yyyy/m/d">
                   <c:v>合计</c:v>
                 </c:pt>
@@ -3528,6 +3537,9 @@
                 </c:pt>
                 <c:pt idx="16">
                   <c:v>-0.00743</c:v>
+                </c:pt>
+                <c:pt idx="17" c:formatCode="0.00%">
+                  <c:v>-0.01177</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12502,7 +12514,7 @@
   <dimension ref="B4:F29"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+      <selection activeCell="J21" sqref="J21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="5"/>
@@ -12839,11 +12851,21 @@
       </c>
     </row>
     <row r="23" ht="22.5" customHeight="1" spans="2:6">
-      <c r="B23" s="34"/>
-      <c r="C23" s="10"/>
-      <c r="D23" s="64"/>
-      <c r="E23" s="63"/>
-      <c r="F23" s="63"/>
+      <c r="B23" s="34">
+        <v>43370</v>
+      </c>
+      <c r="C23" s="10">
+        <v>-0.01177</v>
+      </c>
+      <c r="D23" s="64">
+        <v>-0.01177</v>
+      </c>
+      <c r="E23" s="63">
+        <v>-4.34</v>
+      </c>
+      <c r="F23" s="63">
+        <v>-4.34</v>
+      </c>
     </row>
     <row r="24" ht="22.5" customHeight="1" spans="2:6">
       <c r="B24" s="65"/>

--- a/天天利一号2018年09月收益表.xlsx
+++ b/天天利一号2018年09月收益表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="22368" windowHeight="9947" firstSheet="6" activeTab="10"/>
+    <workbookView windowWidth="24135" windowHeight="13050" firstSheet="6" activeTab="10"/>
   </bookViews>
   <sheets>
     <sheet name="2015汇总" sheetId="1" r:id="rId1"/>
@@ -121,14 +121,14 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="8">
-    <numFmt numFmtId="176" formatCode="0.00_);[Red]\(0.00\)"/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="yyyy&quot;年&quot;m&quot;月&quot;;@"/>
-    <numFmt numFmtId="178" formatCode="0.000%"/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="179" formatCode="0.00_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="0.00_);[Red]\(0.00\)"/>
+    <numFmt numFmtId="177" formatCode="yyyy&quot;年&quot;m&quot;月&quot;;@"/>
+    <numFmt numFmtId="178" formatCode="0.00_ "/>
+    <numFmt numFmtId="179" formatCode="0.000%"/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -177,21 +177,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
@@ -200,8 +185,31 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -216,7 +224,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -229,8 +237,15 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="13"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -246,14 +261,30 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -275,42 +306,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -335,7 +335,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -347,7 +389,91 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -359,67 +485,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -431,91 +515,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -681,26 +681,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -724,7 +709,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -744,6 +729,30 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -758,15 +767,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -775,10 +775,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -787,133 +787,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="28" borderId="18" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="34" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="12" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -984,13 +984,13 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1044,31 +1044,31 @@
     <xf numFmtId="10" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="179" fontId="0" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="179" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -1086,19 +1086,19 @@
     <xf numFmtId="2" fontId="0" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="179" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="10" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="10" fontId="0" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="0" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -1110,10 +1110,7 @@
     <xf numFmtId="2" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="179" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1122,40 +1119,43 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="2" fontId="0" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="0" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="0" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="0" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="10" fontId="1" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="1" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="1" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="0" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="0" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
+    <xf numFmtId="178" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="2" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1164,10 +1164,10 @@
     <xf numFmtId="14" fontId="2" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" quotePrefix="1">
+    <xf numFmtId="179" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" quotePrefix="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" quotePrefix="1">
+    <xf numFmtId="179" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" quotePrefix="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -3210,58 +3210,61 @@
               <c:strCache>
                 <c:ptCount val="24"/>
                 <c:pt idx="0" c:formatCode="yyyy/m/d">
-                  <c:v>2018-9-3</c:v>
+                  <c:v>2018/9/3</c:v>
                 </c:pt>
                 <c:pt idx="1" c:formatCode="yyyy/m/d">
-                  <c:v>2018-9-4</c:v>
+                  <c:v>2018/9/4</c:v>
                 </c:pt>
                 <c:pt idx="2" c:formatCode="yyyy/m/d">
-                  <c:v>2018-9-5</c:v>
+                  <c:v>2018/9/5</c:v>
                 </c:pt>
                 <c:pt idx="3" c:formatCode="yyyy/m/d">
-                  <c:v>2018-9-6</c:v>
+                  <c:v>2018/9/6</c:v>
                 </c:pt>
                 <c:pt idx="4" c:formatCode="yyyy/m/d">
-                  <c:v>2018-9-7</c:v>
+                  <c:v>2018/9/7</c:v>
                 </c:pt>
                 <c:pt idx="5" c:formatCode="yyyy/m/d">
-                  <c:v>2018-9-10</c:v>
+                  <c:v>2018/9/10</c:v>
                 </c:pt>
                 <c:pt idx="6" c:formatCode="yyyy/m/d">
-                  <c:v>2018-9-11</c:v>
+                  <c:v>2018/9/11</c:v>
                 </c:pt>
                 <c:pt idx="7" c:formatCode="yyyy/m/d">
-                  <c:v>2018-9-12</c:v>
+                  <c:v>2018/9/12</c:v>
                 </c:pt>
                 <c:pt idx="8" c:formatCode="yyyy/m/d">
-                  <c:v>2018-9-13</c:v>
+                  <c:v>2018/9/13</c:v>
                 </c:pt>
                 <c:pt idx="9" c:formatCode="yyyy/m/d">
-                  <c:v>2018-9-14</c:v>
+                  <c:v>2018/9/14</c:v>
                 </c:pt>
                 <c:pt idx="10" c:formatCode="yyyy/m/d">
-                  <c:v>2018-9-17</c:v>
+                  <c:v>2018/9/17</c:v>
                 </c:pt>
                 <c:pt idx="11" c:formatCode="yyyy/m/d">
-                  <c:v>2018-9-18</c:v>
+                  <c:v>2018/9/18</c:v>
                 </c:pt>
                 <c:pt idx="12" c:formatCode="yyyy/m/d">
-                  <c:v>2018-9-19</c:v>
+                  <c:v>2018/9/19</c:v>
                 </c:pt>
                 <c:pt idx="13" c:formatCode="yyyy/m/d">
-                  <c:v>2018-9-20</c:v>
+                  <c:v>2018/9/20</c:v>
                 </c:pt>
                 <c:pt idx="14" c:formatCode="yyyy/m/d">
-                  <c:v>2018-9-21</c:v>
+                  <c:v>2018/9/21</c:v>
                 </c:pt>
                 <c:pt idx="15" c:formatCode="yyyy/m/d">
-                  <c:v>2018-9-25</c:v>
+                  <c:v>2018/9/25</c:v>
                 </c:pt>
                 <c:pt idx="16" c:formatCode="yyyy/m/d">
-                  <c:v>2018-9-26</c:v>
+                  <c:v>2018/9/26</c:v>
                 </c:pt>
                 <c:pt idx="17" c:formatCode="yyyy/m/d">
-                  <c:v>2018-9-27</c:v>
+                  <c:v>2018/9/27</c:v>
+                </c:pt>
+                <c:pt idx="18" c:formatCode="yyyy/m/d">
+                  <c:v>2018/9/28</c:v>
                 </c:pt>
                 <c:pt idx="23" c:formatCode="yyyy/m/d">
                   <c:v>合计</c:v>
@@ -3328,6 +3331,9 @@
                 </c:pt>
                 <c:pt idx="17">
                   <c:v>-4.34</c:v>
+                </c:pt>
+                <c:pt idx="18" c:formatCode="General">
+                  <c:v>4.35</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3422,58 +3428,61 @@
               <c:strCache>
                 <c:ptCount val="24"/>
                 <c:pt idx="0" c:formatCode="yyyy/m/d">
-                  <c:v>2018-9-3</c:v>
+                  <c:v>2018/9/3</c:v>
                 </c:pt>
                 <c:pt idx="1" c:formatCode="yyyy/m/d">
-                  <c:v>2018-9-4</c:v>
+                  <c:v>2018/9/4</c:v>
                 </c:pt>
                 <c:pt idx="2" c:formatCode="yyyy/m/d">
-                  <c:v>2018-9-5</c:v>
+                  <c:v>2018/9/5</c:v>
                 </c:pt>
                 <c:pt idx="3" c:formatCode="yyyy/m/d">
-                  <c:v>2018-9-6</c:v>
+                  <c:v>2018/9/6</c:v>
                 </c:pt>
                 <c:pt idx="4" c:formatCode="yyyy/m/d">
-                  <c:v>2018-9-7</c:v>
+                  <c:v>2018/9/7</c:v>
                 </c:pt>
                 <c:pt idx="5" c:formatCode="yyyy/m/d">
-                  <c:v>2018-9-10</c:v>
+                  <c:v>2018/9/10</c:v>
                 </c:pt>
                 <c:pt idx="6" c:formatCode="yyyy/m/d">
-                  <c:v>2018-9-11</c:v>
+                  <c:v>2018/9/11</c:v>
                 </c:pt>
                 <c:pt idx="7" c:formatCode="yyyy/m/d">
-                  <c:v>2018-9-12</c:v>
+                  <c:v>2018/9/12</c:v>
                 </c:pt>
                 <c:pt idx="8" c:formatCode="yyyy/m/d">
-                  <c:v>2018-9-13</c:v>
+                  <c:v>2018/9/13</c:v>
                 </c:pt>
                 <c:pt idx="9" c:formatCode="yyyy/m/d">
-                  <c:v>2018-9-14</c:v>
+                  <c:v>2018/9/14</c:v>
                 </c:pt>
                 <c:pt idx="10" c:formatCode="yyyy/m/d">
-                  <c:v>2018-9-17</c:v>
+                  <c:v>2018/9/17</c:v>
                 </c:pt>
                 <c:pt idx="11" c:formatCode="yyyy/m/d">
-                  <c:v>2018-9-18</c:v>
+                  <c:v>2018/9/18</c:v>
                 </c:pt>
                 <c:pt idx="12" c:formatCode="yyyy/m/d">
-                  <c:v>2018-9-19</c:v>
+                  <c:v>2018/9/19</c:v>
                 </c:pt>
                 <c:pt idx="13" c:formatCode="yyyy/m/d">
-                  <c:v>2018-9-20</c:v>
+                  <c:v>2018/9/20</c:v>
                 </c:pt>
                 <c:pt idx="14" c:formatCode="yyyy/m/d">
-                  <c:v>2018-9-21</c:v>
+                  <c:v>2018/9/21</c:v>
                 </c:pt>
                 <c:pt idx="15" c:formatCode="yyyy/m/d">
-                  <c:v>2018-9-25</c:v>
+                  <c:v>2018/9/25</c:v>
                 </c:pt>
                 <c:pt idx="16" c:formatCode="yyyy/m/d">
-                  <c:v>2018-9-26</c:v>
+                  <c:v>2018/9/26</c:v>
                 </c:pt>
                 <c:pt idx="17" c:formatCode="yyyy/m/d">
-                  <c:v>2018-9-27</c:v>
+                  <c:v>2018/9/27</c:v>
+                </c:pt>
+                <c:pt idx="18" c:formatCode="yyyy/m/d">
+                  <c:v>2018/9/28</c:v>
                 </c:pt>
                 <c:pt idx="23" c:formatCode="yyyy/m/d">
                   <c:v>合计</c:v>
@@ -3540,6 +3549,9 @@
                 </c:pt>
                 <c:pt idx="17" c:formatCode="0.00%">
                   <c:v>-0.01177</c:v>
+                </c:pt>
+                <c:pt idx="18" c:formatCode="0.00%">
+                  <c:v>-0.00872</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10902,8 +10914,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="4233545" y="2036445"/>
-        <a:ext cx="14596110" cy="7077075"/>
+        <a:off x="4695825" y="1990725"/>
+        <a:ext cx="16173450" cy="7077075"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -10937,8 +10949,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="5538470" y="1360170"/>
-        <a:ext cx="9117965" cy="5017770"/>
+        <a:off x="6137910" y="1325880"/>
+        <a:ext cx="10141585" cy="5017770"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -10972,8 +10984,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="6955790" y="883285"/>
-        <a:ext cx="9117330" cy="4183380"/>
+        <a:off x="7673340" y="848995"/>
+        <a:ext cx="10141585" cy="4183380"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -11007,8 +11019,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="4638040" y="456565"/>
-        <a:ext cx="9030970" cy="4359910"/>
+        <a:off x="5100320" y="433705"/>
+        <a:ext cx="10055225" cy="4337050"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -11042,8 +11054,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="4951730" y="344805"/>
-        <a:ext cx="8574405" cy="5372100"/>
+        <a:off x="5414010" y="333375"/>
+        <a:ext cx="9598660" cy="5257800"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -11077,8 +11089,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="5071745" y="365760"/>
-        <a:ext cx="9237345" cy="6006465"/>
+        <a:off x="5534025" y="342900"/>
+        <a:ext cx="10334625" cy="5857875"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -11112,8 +11124,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="4233545" y="1424940"/>
-        <a:ext cx="9305925" cy="5915025"/>
+        <a:off x="4695825" y="1390650"/>
+        <a:ext cx="10334625" cy="5915025"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -11147,8 +11159,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="4881880" y="1034415"/>
-        <a:ext cx="8715375" cy="5781675"/>
+        <a:off x="5344160" y="1000125"/>
+        <a:ext cx="9744075" cy="5781675"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -11182,8 +11194,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="4248785" y="1050925"/>
-        <a:ext cx="9290050" cy="5894705"/>
+        <a:off x="4711065" y="1016635"/>
+        <a:ext cx="10314305" cy="5894705"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -11217,8 +11229,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="4513580" y="1105535"/>
-        <a:ext cx="9031605" cy="5894705"/>
+        <a:off x="4975860" y="1071245"/>
+        <a:ext cx="10055860" cy="5894705"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -11252,8 +11264,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="4638040" y="456565"/>
-        <a:ext cx="9030970" cy="5129530"/>
+        <a:off x="5100320" y="433705"/>
+        <a:ext cx="10055225" cy="5118100"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -11287,8 +11299,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="4323080" y="1217295"/>
-        <a:ext cx="9116695" cy="5461000"/>
+        <a:off x="4785360" y="1183005"/>
+        <a:ext cx="10140950" cy="5461000"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -11322,8 +11334,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="4951730" y="1312545"/>
-        <a:ext cx="9049385" cy="5417185"/>
+        <a:off x="5414010" y="1278255"/>
+        <a:ext cx="10141585" cy="5417185"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -11629,12 +11641,12 @@
       <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
   <cols>
     <col min="1" max="1" width="9" style="1"/>
     <col min="2" max="2" width="15" style="1" customWidth="1"/>
     <col min="3" max="3" width="16.75" style="1" customWidth="1"/>
-    <col min="4" max="4" width="19.8796296296296" style="79" customWidth="1"/>
+    <col min="4" max="4" width="19.8833333333333" style="79" customWidth="1"/>
     <col min="5" max="5" width="18" style="1" customWidth="1"/>
     <col min="6" max="16384" width="9" style="1"/>
   </cols>
@@ -12219,16 +12231,16 @@
       <selection activeCell="F28" sqref="F28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
   <cols>
     <col min="1" max="1" width="9" style="1"/>
     <col min="2" max="2" width="15" style="1" customWidth="1"/>
     <col min="3" max="3" width="16.75" style="41" customWidth="1"/>
-    <col min="4" max="4" width="19.8796296296296" style="71" customWidth="1"/>
+    <col min="4" max="4" width="19.8833333333333" style="71" customWidth="1"/>
     <col min="5" max="5" width="18" style="1" customWidth="1"/>
     <col min="6" max="17" width="9" style="1"/>
-    <col min="18" max="18" width="8.37962962962963" style="1" customWidth="1"/>
-    <col min="19" max="19" width="8.87962962962963" style="1" customWidth="1"/>
+    <col min="18" max="18" width="8.38333333333333" style="1" customWidth="1"/>
+    <col min="19" max="19" width="8.88333333333333" style="1" customWidth="1"/>
     <col min="20" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
@@ -12514,21 +12526,21 @@
   <dimension ref="B4:F29"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="J21" sqref="J21"/>
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
   <cols>
     <col min="1" max="1" width="9" style="1"/>
     <col min="2" max="2" width="15" style="1" customWidth="1"/>
     <col min="3" max="3" width="16.75" style="41" customWidth="1"/>
     <col min="4" max="4" width="16.75" style="42" customWidth="1"/>
     <col min="5" max="5" width="16.75" style="43" customWidth="1"/>
-    <col min="6" max="6" width="19.8796296296296" style="43" customWidth="1"/>
+    <col min="6" max="6" width="19.8833333333333" style="43" customWidth="1"/>
     <col min="7" max="7" width="18" style="1" customWidth="1"/>
     <col min="8" max="19" width="9" style="1"/>
-    <col min="20" max="20" width="8.37962962962963" style="1" customWidth="1"/>
-    <col min="21" max="21" width="8.87962962962963" style="1" customWidth="1"/>
+    <col min="20" max="20" width="8.38333333333333" style="1" customWidth="1"/>
+    <col min="21" max="21" width="8.88333333333333" style="1" customWidth="1"/>
     <col min="22" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
@@ -12868,35 +12880,45 @@
       </c>
     </row>
     <row r="24" ht="22.5" customHeight="1" spans="2:6">
-      <c r="B24" s="65"/>
-      <c r="C24" s="10"/>
-      <c r="D24" s="50"/>
-      <c r="E24" s="66"/>
-      <c r="F24" s="67"/>
+      <c r="B24" s="34">
+        <v>43371</v>
+      </c>
+      <c r="C24" s="10">
+        <v>-0.00872</v>
+      </c>
+      <c r="D24" s="50">
+        <v>-0.00872</v>
+      </c>
+      <c r="E24" s="65">
+        <v>3.045</v>
+      </c>
+      <c r="F24" s="66">
+        <v>4.35</v>
+      </c>
     </row>
     <row r="25" ht="22.5" customHeight="1" spans="2:6">
-      <c r="B25" s="65"/>
+      <c r="B25" s="67"/>
       <c r="C25" s="64"/>
       <c r="D25" s="64"/>
       <c r="E25" s="68"/>
       <c r="F25" s="68"/>
     </row>
     <row r="26" ht="22.5" customHeight="1" spans="2:6">
-      <c r="B26" s="65"/>
+      <c r="B26" s="67"/>
       <c r="C26" s="69"/>
       <c r="D26" s="69"/>
       <c r="E26" s="63"/>
       <c r="F26" s="51"/>
     </row>
     <row r="27" ht="22.5" customHeight="1" spans="2:6">
-      <c r="B27" s="65"/>
+      <c r="B27" s="67"/>
       <c r="C27" s="46"/>
       <c r="D27" s="46"/>
       <c r="E27" s="63"/>
       <c r="F27" s="63"/>
     </row>
     <row r="28" ht="22.5" customHeight="1" spans="2:6">
-      <c r="B28" s="65"/>
+      <c r="B28" s="67"/>
       <c r="C28" s="38"/>
       <c r="D28" s="46"/>
       <c r="E28" s="63"/>
@@ -12933,16 +12955,16 @@
       <selection activeCell="I19" sqref="I19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
   <cols>
     <col min="1" max="1" width="9" style="1"/>
     <col min="2" max="2" width="15" style="1" customWidth="1"/>
     <col min="3" max="3" width="16.75" style="3" customWidth="1"/>
-    <col min="4" max="4" width="19.8796296296296" style="28" customWidth="1"/>
+    <col min="4" max="4" width="19.8833333333333" style="28" customWidth="1"/>
     <col min="5" max="5" width="18" style="1" customWidth="1"/>
     <col min="6" max="17" width="9" style="1"/>
-    <col min="18" max="18" width="8.37962962962963" style="1" customWidth="1"/>
-    <col min="19" max="19" width="8.87962962962963" style="1" customWidth="1"/>
+    <col min="18" max="18" width="8.38333333333333" style="1" customWidth="1"/>
+    <col min="19" max="19" width="8.88333333333333" style="1" customWidth="1"/>
     <col min="20" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
@@ -13193,10 +13215,10 @@
       <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
   <cols>
     <col min="1" max="1" width="9" style="20"/>
-    <col min="2" max="4" width="31.1296296296296" style="20" customWidth="1"/>
+    <col min="2" max="4" width="31.1333333333333" style="20" customWidth="1"/>
     <col min="5" max="16384" width="9" style="20"/>
   </cols>
   <sheetData>
@@ -13444,16 +13466,16 @@
       <selection activeCell="U6" sqref="U6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
   <cols>
     <col min="1" max="1" width="9" style="1"/>
     <col min="2" max="2" width="15" style="2" customWidth="1"/>
     <col min="3" max="3" width="16.75" style="3" customWidth="1"/>
-    <col min="4" max="4" width="19.8796296296296" style="4" customWidth="1"/>
+    <col min="4" max="4" width="19.8833333333333" style="4" customWidth="1"/>
     <col min="5" max="5" width="18" style="1" customWidth="1"/>
     <col min="6" max="17" width="9" style="1"/>
-    <col min="18" max="18" width="8.37962962962963" style="1" customWidth="1"/>
-    <col min="19" max="19" width="8.87962962962963" style="1" customWidth="1"/>
+    <col min="18" max="18" width="8.38333333333333" style="1" customWidth="1"/>
+    <col min="19" max="19" width="8.88333333333333" style="1" customWidth="1"/>
     <col min="20" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
@@ -13577,12 +13599,12 @@
       <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
   <cols>
     <col min="1" max="1" width="9" style="1"/>
     <col min="2" max="2" width="15" style="1" customWidth="1"/>
     <col min="3" max="3" width="16.75" style="1" customWidth="1"/>
-    <col min="4" max="4" width="19.8796296296296" style="79" customWidth="1"/>
+    <col min="4" max="4" width="19.8833333333333" style="79" customWidth="1"/>
     <col min="5" max="5" width="18" style="1" customWidth="1"/>
     <col min="6" max="16384" width="9" style="1"/>
   </cols>
@@ -13703,12 +13725,12 @@
       <selection activeCell="C28" sqref="C28:D28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="9" style="1"/>
     <col min="2" max="2" width="15" style="1" customWidth="1"/>
     <col min="3" max="3" width="16.75" style="1" customWidth="1"/>
-    <col min="4" max="4" width="19.8796296296296" style="79" customWidth="1"/>
+    <col min="4" max="4" width="19.8833333333333" style="79" customWidth="1"/>
     <col min="5" max="5" width="18" style="1" customWidth="1"/>
     <col min="6" max="16384" width="9" style="1"/>
   </cols>
@@ -14010,15 +14032,15 @@
       <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
   <cols>
     <col min="1" max="1" width="9" style="1"/>
     <col min="2" max="2" width="15" style="1" customWidth="1"/>
     <col min="3" max="3" width="16.75" style="3" customWidth="1"/>
-    <col min="4" max="4" width="19.8796296296296" style="71" customWidth="1"/>
+    <col min="4" max="4" width="19.8833333333333" style="71" customWidth="1"/>
     <col min="5" max="5" width="18" style="1" customWidth="1"/>
     <col min="6" max="18" width="9" style="1"/>
-    <col min="19" max="19" width="8.87962962962963" style="1" customWidth="1"/>
+    <col min="19" max="19" width="8.88333333333333" style="1" customWidth="1"/>
     <col min="20" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
@@ -14324,16 +14346,16 @@
       <selection activeCell="E27" sqref="E27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
   <cols>
     <col min="1" max="1" width="9" style="1"/>
     <col min="2" max="2" width="15" style="1" customWidth="1"/>
     <col min="3" max="3" width="16.75" style="3" customWidth="1"/>
-    <col min="4" max="4" width="19.8796296296296" style="71" customWidth="1"/>
+    <col min="4" max="4" width="19.8833333333333" style="71" customWidth="1"/>
     <col min="5" max="5" width="18" style="1" customWidth="1"/>
     <col min="6" max="17" width="9" style="1"/>
-    <col min="18" max="18" width="8.37962962962963" style="1" customWidth="1"/>
-    <col min="19" max="19" width="8.87962962962963" style="1" customWidth="1"/>
+    <col min="18" max="18" width="8.38333333333333" style="1" customWidth="1"/>
+    <col min="19" max="19" width="8.88333333333333" style="1" customWidth="1"/>
     <col min="20" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
@@ -14733,7 +14755,7 @@
         <v>10.38</v>
       </c>
     </row>
-    <row r="42" ht="15.6" spans="2:4">
+    <row r="42" ht="14.25" spans="2:4">
       <c r="B42" s="30">
         <v>42425</v>
       </c>
@@ -14895,16 +14917,16 @@
       <selection activeCell="D49" sqref="D49"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
   <cols>
     <col min="1" max="1" width="9" style="1"/>
     <col min="2" max="2" width="15" style="1" customWidth="1"/>
     <col min="3" max="3" width="16.75" style="3" customWidth="1"/>
-    <col min="4" max="4" width="19.8796296296296" style="71" customWidth="1"/>
+    <col min="4" max="4" width="19.8833333333333" style="71" customWidth="1"/>
     <col min="5" max="5" width="18" style="1" customWidth="1"/>
     <col min="6" max="17" width="9" style="1"/>
-    <col min="18" max="18" width="8.37962962962963" style="1" customWidth="1"/>
-    <col min="19" max="19" width="8.87962962962963" style="1" customWidth="1"/>
+    <col min="18" max="18" width="8.38333333333333" style="1" customWidth="1"/>
+    <col min="19" max="19" width="8.88333333333333" style="1" customWidth="1"/>
     <col min="20" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
@@ -15212,16 +15234,16 @@
       <selection activeCell="B22" sqref="B22:D22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
   <cols>
     <col min="1" max="1" width="9" style="1"/>
     <col min="2" max="2" width="15" style="1" customWidth="1"/>
     <col min="3" max="3" width="16.75" style="3" customWidth="1"/>
-    <col min="4" max="4" width="19.8796296296296" style="28" customWidth="1"/>
+    <col min="4" max="4" width="19.8833333333333" style="28" customWidth="1"/>
     <col min="5" max="5" width="18" style="1" customWidth="1"/>
     <col min="6" max="17" width="9" style="1"/>
-    <col min="18" max="18" width="8.37962962962963" style="1" customWidth="1"/>
-    <col min="19" max="19" width="8.87962962962963" style="1" customWidth="1"/>
+    <col min="18" max="18" width="8.38333333333333" style="1" customWidth="1"/>
+    <col min="19" max="19" width="8.88333333333333" style="1" customWidth="1"/>
     <col min="20" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
@@ -15450,16 +15472,16 @@
       <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
   <cols>
     <col min="1" max="1" width="9" style="1"/>
     <col min="2" max="2" width="15" style="1" customWidth="1"/>
     <col min="3" max="3" width="16.75" style="3" customWidth="1"/>
-    <col min="4" max="4" width="19.8796296296296" style="71" customWidth="1"/>
+    <col min="4" max="4" width="19.8833333333333" style="71" customWidth="1"/>
     <col min="5" max="5" width="18" style="1" customWidth="1"/>
     <col min="6" max="17" width="9" style="1"/>
-    <col min="18" max="18" width="8.37962962962963" style="1" customWidth="1"/>
-    <col min="19" max="19" width="8.87962962962963" style="1" customWidth="1"/>
+    <col min="18" max="18" width="8.38333333333333" style="1" customWidth="1"/>
+    <col min="19" max="19" width="8.88333333333333" style="1" customWidth="1"/>
     <col min="20" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
@@ -15765,16 +15787,16 @@
       <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
   <cols>
     <col min="1" max="1" width="9" style="1"/>
     <col min="2" max="2" width="15" style="1" customWidth="1"/>
     <col min="3" max="3" width="16.75" style="41" customWidth="1"/>
-    <col min="4" max="4" width="19.8796296296296" style="71" customWidth="1"/>
+    <col min="4" max="4" width="19.8833333333333" style="71" customWidth="1"/>
     <col min="5" max="5" width="18" style="1" customWidth="1"/>
     <col min="6" max="17" width="9" style="1"/>
-    <col min="18" max="18" width="8.37962962962963" style="1" customWidth="1"/>
-    <col min="19" max="19" width="8.87962962962963" style="1" customWidth="1"/>
+    <col min="18" max="18" width="8.38333333333333" style="1" customWidth="1"/>
+    <col min="19" max="19" width="8.88333333333333" style="1" customWidth="1"/>
     <col min="20" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
